--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -610,9 +610,6 @@
     <t>lines</t>
   </si>
   <si>
-    <t>X/XX</t>
-  </si>
-  <si>
     <t>Note: Only selected US are here.</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>YW, RV, MA, AA</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2176,7 @@
         <v>171</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
@@ -2192,7 +2192,7 @@
         <v>173</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2329,7 +2329,7 @@
         <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2346,7 +2346,7 @@
         <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2578,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2586,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -2781,7 +2781,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2859,16 +2859,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
@@ -2924,9 +2924,6 @@
       <c r="F2">
         <v>35</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2999,13 +2996,22 @@
         <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
         <v>30</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>41540</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,13 +3025,22 @@
         <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
         <v>10</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>41540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3075,6 +3090,12 @@
       <c r="F11" t="s">
         <v>180</v>
       </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
@@ -3098,7 +3119,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3242,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3275,7 +3296,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="186">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,7 +630,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -670,6 +670,15 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -831,7 +840,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -843,13 +852,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -868,6 +873,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -951,6 +971,131 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11C5-456B-8707-F20C5D86CBAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="97750680"/>
+        <c:axId val="97754992"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="97750680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97754992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="97754992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97750680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1087,7 +1232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1120,7 +1265,10 @@
                   <c:v>40442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>41540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,10 +1280,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,6 +1358,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62442</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26648EBD-D357-41CF-A9D0-0E9B4E97B412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1662,7 +1856,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2025,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2260,7 @@
       <c r="C3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E3" t="s">
@@ -2083,7 +2277,7 @@
       <c r="C4" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E4" t="s">
@@ -2100,7 +2294,7 @@
       <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E5" t="s">
@@ -2108,19 +2302,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2128,70 +2322,70 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2210,6 +2404,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2218,7 +2413,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2384,6 +2579,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2392,6 +2590,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
         <v>105</v>
       </c>
@@ -2400,6 +2601,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -2408,6 +2612,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13" t="s">
         <v>107</v>
       </c>
@@ -2416,6 +2623,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -2424,6 +2634,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
       <c r="B15" t="s">
         <v>109</v>
       </c>
@@ -2432,6 +2645,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
       <c r="B16" t="s">
         <v>110</v>
       </c>
@@ -2439,7 +2655,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
       <c r="B17" t="s">
         <v>111</v>
       </c>
@@ -2447,7 +2666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -2455,7 +2674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>113</v>
       </c>
@@ -2463,7 +2682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>114</v>
       </c>
@@ -2471,7 +2690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>115</v>
       </c>
@@ -2479,7 +2698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>116</v>
       </c>
@@ -2487,7 +2706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>117</v>
       </c>
@@ -2495,7 +2714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>118</v>
       </c>
@@ -2503,7 +2722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -2511,7 +2730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>120</v>
       </c>
@@ -2519,7 +2738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>121</v>
       </c>
@@ -2527,7 +2746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>122</v>
       </c>
@@ -2535,7 +2754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>123</v>
       </c>
@@ -2543,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>124</v>
       </c>
@@ -2551,7 +2770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>125</v>
       </c>
@@ -2559,7 +2778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>126</v>
       </c>
@@ -2586,47 +2805,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.875" style="6"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2649,7 +2868,7 @@
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2657,114 +2876,114 @@
       <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>41065</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>24</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>41078</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>41092</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>480</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>135</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>41106</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>740</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>160</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>41120</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1100</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>145</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="1"/>
         <v>148.9655172413793</v>
       </c>
@@ -2778,20 +2997,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2810,7 +3029,7 @@
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2819,7 +3038,7 @@
         <v>40442</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2827,24 +3046,46 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>41540</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8">
+        <f>(D3-D2)/E3*60</f>
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>41549</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f>B3-B4</f>
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+      <c r="D4">
+        <v>135</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8">
+        <f>(D4-D3)/E4*60</f>
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>
@@ -2859,260 +3100,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" bestFit="1"/>
+    <col min="1" max="1" width="8.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="29" bestFit="1"/>
+    <col min="10" max="16384" width="11" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="28">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="28">
         <v>35</v>
       </c>
+      <c r="G2" s="28">
+        <v>26</v>
+      </c>
+      <c r="H2" s="28">
+        <v>20</v>
+      </c>
+      <c r="I2" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="28">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="28">
         <v>20</v>
       </c>
+      <c r="G3" s="28">
+        <v>13</v>
+      </c>
+      <c r="H3" s="28">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="28">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="28">
         <v>20</v>
       </c>
+      <c r="G4" s="28">
+        <v>11</v>
+      </c>
+      <c r="H4" s="28">
+        <v>5</v>
+      </c>
+      <c r="I4" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="28">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="28">
         <v>25</v>
       </c>
+      <c r="G5" s="28">
+        <v>13</v>
+      </c>
+      <c r="H5" s="28">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="28">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="28">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="28">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="28">
         <v>20</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="29">
         <v>41540</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="28">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="28">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="28">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="28">
         <v>5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="29">
         <v>41540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="28">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <v>35</v>
       </c>
+      <c r="G8" s="28">
+        <v>15</v>
+      </c>
+      <c r="H8" s="28">
+        <v>20</v>
+      </c>
+      <c r="I8" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="28">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="28">
         <v>35</v>
       </c>
+      <c r="G9" s="28">
+        <v>28</v>
+      </c>
+      <c r="H9" s="28">
+        <v>20</v>
+      </c>
+      <c r="I9" s="29">
+        <v>41549</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+      <c r="E11" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3125,13 +3420,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3146,20 +3451,180 @@
       <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3192,19 +3657,19 @@
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3237,19 +3702,19 @@
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3264,7 +3729,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3292,10 +3757,10 @@
       <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3306,7 +3771,7 @@
       <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3317,7 +3782,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3328,29 +3793,29 @@
       <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3361,7 +3826,7 @@
       <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3372,7 +3837,7 @@
       <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3383,7 +3848,7 @@
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3394,7 +3859,7 @@
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3405,7 +3870,7 @@
       <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3416,7 +3881,7 @@
       <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3427,7 +3892,7 @@
       <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3438,7 +3903,7 @@
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3449,7 +3914,7 @@
       <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3460,7 +3925,7 @@
       <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3471,7 +3936,7 @@
       <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3482,7 +3947,7 @@
       <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3493,7 +3958,7 @@
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3504,7 +3969,7 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3515,7 +3980,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3526,7 +3991,7 @@
       <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3537,7 +4002,7 @@
       <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3548,7 +4013,7 @@
       <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3559,7 +4024,7 @@
       <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3570,7 +4035,7 @@
       <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3581,7 +4046,7 @@
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3592,7 +4057,7 @@
       <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3603,7 +4068,7 @@
       <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3614,7 +4079,7 @@
       <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3625,7 +4090,7 @@
       <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3636,7 +4101,7 @@
       <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>58</v>
       </c>
     </row>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HomeworkTextbooksClassNotes\Homework\SSW555\SSW555Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyouhao\Desktop\Project 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>using GitHub</t>
+  </si>
+  <si>
+    <t>Wait until due date to do US</t>
   </si>
 </sst>
 </file>
@@ -630,7 +636,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -664,7 +670,25 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="10"/>
@@ -675,10 +699,7 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -840,7 +861,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -863,29 +884,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="65" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2219,173 +2245,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="32" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2412,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3098,317 +3125,327 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="29" bestFit="1"/>
-    <col min="10" max="16384" width="11" style="28"/>
+    <col min="1" max="1" width="8.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" bestFit="1"/>
+    <col min="10" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="19">
         <v>15</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="19">
         <v>35</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="19">
         <v>26</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="19">
         <v>20</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="19">
         <v>15</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="19">
         <v>20</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="19">
         <v>13</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="19">
         <v>5</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="19">
         <v>15</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="19">
         <v>20</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="19">
         <v>11</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="19">
         <v>5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="19">
         <v>10</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="19">
         <v>25</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="19">
         <v>13</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="19">
         <v>5</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="19">
         <v>10</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="19">
         <v>30</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="19">
         <v>14</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="19">
         <v>20</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="20">
         <v>41540</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="19">
         <v>10</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="19">
         <v>10</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="19">
         <v>15</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="19">
         <v>5</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="20">
         <v>41540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="19">
         <v>20</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="19">
         <v>35</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="19">
         <v>15</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="19">
         <v>20</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="19">
         <v>20</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>35</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="19">
         <v>28</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="19">
         <v>20</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="20">
         <v>41549</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +3460,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3438,7 +3475,7 @@
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3511,7 @@
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D2" t="s">
@@ -3494,7 +3531,7 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D3" t="s">
@@ -3514,7 +3551,7 @@
       <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D4" t="s">
@@ -3534,7 +3571,7 @@
       <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D5" t="s">
@@ -3554,7 +3591,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D6" t="s">
@@ -3574,7 +3611,7 @@
       <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D7" t="s">
@@ -3594,7 +3631,7 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D8" t="s">
@@ -3614,7 +3651,7 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D9" t="s">
@@ -3639,7 +3676,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3684,7 +3721,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3760,7 +3797,7 @@
       <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>182</v>
       </c>
     </row>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyouhao\Desktop\Project 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HomeworkTextbooksClassNotes\Homework\SSW555\SSW555Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -667,11 +667,6 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -700,6 +695,15 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -886,32 +890,30 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="65" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="65" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2251,168 +2253,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="23"/>
+    <col min="1" max="1" width="7.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2439,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2485,7 @@
         <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2500,7 +2502,7 @@
         <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,7 +2519,7 @@
         <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2534,7 +2536,7 @@
         <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2585,7 +2587,7 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,7 +2604,7 @@
         <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,309 +3129,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20" bestFit="1"/>
-    <col min="10" max="16384" width="11" style="19"/>
+    <col min="1" max="1" width="8.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="32" bestFit="1"/>
+    <col min="10" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="31">
         <v>15</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="31">
         <v>35</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="31">
         <v>26</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="31">
         <v>20</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="31">
         <v>15</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="31">
         <v>20</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="31">
         <v>13</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="31">
         <v>5</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="31">
         <v>15</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="31">
         <v>20</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="31">
         <v>11</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="31">
         <v>5</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="31">
         <v>10</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="31">
         <v>25</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="31">
         <v>13</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="31">
         <v>5</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="31">
         <v>10</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="31">
         <v>30</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="31">
         <v>14</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="31">
         <v>20</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="32">
         <v>41540</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="31">
         <v>10</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="31">
         <v>10</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="31">
         <v>15</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="31">
         <v>5</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="32">
         <v>41540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="31">
         <v>20</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="31">
         <v>35</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="31">
         <v>15</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="31">
         <v>20</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="31">
         <v>20</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="31">
         <v>35</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="31">
         <v>28</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="31">
         <v>20</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="32">
         <v>41549</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3439,7 +3441,7 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3511,7 +3513,7 @@
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D2" t="s">
@@ -3531,7 +3533,7 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D3" t="s">
@@ -3551,7 +3553,7 @@
       <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D4" t="s">
@@ -3571,7 +3573,7 @@
       <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D5" t="s">
@@ -3591,7 +3593,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D6" t="s">
@@ -3611,7 +3613,7 @@
       <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D7" t="s">
@@ -3631,7 +3633,7 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D8" t="s">
@@ -3651,7 +3653,7 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D9" t="s">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -695,6 +695,15 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
@@ -865,7 +874,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,6 +925,8 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2441,385 +2452,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="35">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="35">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="35">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="35">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="35">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="35">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="B18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B19" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="B20" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="B21" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="B23" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B24" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="B27" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="B28" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="B29" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="B30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="B31" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="B32" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="B33" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2834,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3461,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3669,7 +3681,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3767,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4155,6 +4167,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,6 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -196,9 +191,6 @@
     <t>All male members of a family should have the same last name</t>
   </si>
   <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
     <t>Siblings should not marry one another</t>
   </si>
   <si>
@@ -289,9 +281,6 @@
     <t>Male last names</t>
   </si>
   <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
     <t>Siblings should not marry</t>
   </si>
   <si>
@@ -394,9 +383,6 @@
     <t>US16</t>
   </si>
   <si>
-    <t>US17</t>
-  </si>
-  <si>
     <t>US18</t>
   </si>
   <si>
@@ -626,6 +612,15 @@
   </si>
   <si>
     <t>Wait until due date to do US</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
   </si>
 </sst>
 </file>
@@ -636,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -660,14 +655,6 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -713,6 +700,28 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="4">
@@ -874,11 +883,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -891,42 +897,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="65" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2264,169 +2286,169 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="7.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="17" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="16" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="19" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="16" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="19" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>162</v>
+      <c r="E13" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>183</v>
+      <c r="E18" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2453,386 +2475,386 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="6.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="C4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>2</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>2</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>2</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>2</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>1</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
-        <v>1</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
-        <v>1</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
-        <v>1</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="C16" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
         <v>2</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
-        <v>2</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
-        <v>2</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
-        <v>2</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="C17" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
-        <v>2</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="C18" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
-        <v>2</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="C19" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
+      <c r="C20" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
+      <c r="C21" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="C22" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="C23" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="C24" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="C25" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
+      <c r="C26" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="s">
+      <c r="C27" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
+      <c r="C28" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="C29" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C31" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
+      <c r="C32" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="35" t="s">
+      <c r="C33" s="31" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2852,179 +2874,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="6"/>
+    <col min="1" max="1" width="10.875" style="5"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="11">
+        <v>132</v>
+      </c>
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="11">
+        <v>133</v>
+      </c>
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>148.9655172413793</v>
       </c>
@@ -3046,36 +3068,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>40442</v>
       </c>
       <c r="B2">
@@ -3086,7 +3108,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>41540</v>
       </c>
       <c r="B3">
@@ -3102,13 +3124,13 @@
       <c r="E3">
         <v>25</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>(D3-D2)/E3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>41549</v>
       </c>
       <c r="B4">
@@ -3124,7 +3146,7 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>(D4-D3)/E4*60</f>
         <v>63.6</v>
       </c>
@@ -3147,319 +3169,319 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="32" bestFit="1"/>
-    <col min="10" max="16384" width="11" style="31"/>
+    <col min="1" max="1" width="8.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="28" bestFit="1"/>
+    <col min="10" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="27">
+        <v>15</v>
+      </c>
+      <c r="F2" s="27">
+        <v>35</v>
+      </c>
+      <c r="G2" s="27">
+        <v>26</v>
+      </c>
+      <c r="H2" s="27">
+        <v>20</v>
+      </c>
+      <c r="I2" s="28">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="27">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27">
+        <v>13</v>
+      </c>
+      <c r="H3" s="27">
+        <v>5</v>
+      </c>
+      <c r="I3" s="28">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="31">
+      <c r="B4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="27">
         <v>15</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F4" s="27">
+        <v>20</v>
+      </c>
+      <c r="G4" s="27">
+        <v>11</v>
+      </c>
+      <c r="H4" s="27">
+        <v>5</v>
+      </c>
+      <c r="I4" s="28">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="27">
+        <v>10</v>
+      </c>
+      <c r="F5" s="27">
+        <v>25</v>
+      </c>
+      <c r="G5" s="27">
+        <v>13</v>
+      </c>
+      <c r="H5" s="27">
+        <v>5</v>
+      </c>
+      <c r="I5" s="28">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="27">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27">
+        <v>30</v>
+      </c>
+      <c r="G6" s="27">
+        <v>14</v>
+      </c>
+      <c r="H6" s="27">
+        <v>20</v>
+      </c>
+      <c r="I6" s="28">
+        <v>41540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="27">
+        <v>10</v>
+      </c>
+      <c r="F7" s="27">
+        <v>10</v>
+      </c>
+      <c r="G7" s="27">
+        <v>15</v>
+      </c>
+      <c r="H7" s="27">
+        <v>5</v>
+      </c>
+      <c r="I7" s="28">
+        <v>41540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="27">
+        <v>20</v>
+      </c>
+      <c r="F8" s="27">
         <v>35</v>
       </c>
-      <c r="G2" s="31">
-        <v>26</v>
-      </c>
-      <c r="H2" s="31">
+      <c r="G8" s="27">
+        <v>15</v>
+      </c>
+      <c r="H8" s="27">
         <v>20</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I8" s="28">
         <v>41549</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="31">
-        <v>15</v>
-      </c>
-      <c r="F3" s="31">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="27">
         <v>20</v>
       </c>
-      <c r="G3" s="31">
-        <v>13</v>
-      </c>
-      <c r="H3" s="31">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32">
+      <c r="F9" s="27">
+        <v>35</v>
+      </c>
+      <c r="G9" s="27">
+        <v>28</v>
+      </c>
+      <c r="H9" s="27">
+        <v>20</v>
+      </c>
+      <c r="I9" s="28">
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="31">
-        <v>15</v>
-      </c>
-      <c r="F4" s="31">
-        <v>20</v>
-      </c>
-      <c r="G4" s="31">
-        <v>11</v>
-      </c>
-      <c r="H4" s="31">
-        <v>5</v>
-      </c>
-      <c r="I4" s="32">
-        <v>41549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="31">
-        <v>10</v>
-      </c>
-      <c r="F5" s="31">
-        <v>25</v>
-      </c>
-      <c r="G5" s="31">
-        <v>13</v>
-      </c>
-      <c r="H5" s="31">
-        <v>5</v>
-      </c>
-      <c r="I5" s="32">
-        <v>41549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="31">
-        <v>10</v>
-      </c>
-      <c r="F6" s="31">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="31">
-        <v>14</v>
-      </c>
-      <c r="H6" s="31">
-        <v>20</v>
-      </c>
-      <c r="I6" s="32">
-        <v>41540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="31">
-        <v>10</v>
-      </c>
-      <c r="F7" s="31">
-        <v>10</v>
-      </c>
-      <c r="G7" s="31">
-        <v>15</v>
-      </c>
-      <c r="H7" s="31">
-        <v>5</v>
-      </c>
-      <c r="I7" s="32">
-        <v>41540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="31">
-        <v>20</v>
-      </c>
-      <c r="F8" s="31">
-        <v>35</v>
-      </c>
-      <c r="G8" s="31">
-        <v>15</v>
-      </c>
-      <c r="H8" s="31">
-        <v>20</v>
-      </c>
-      <c r="I8" s="32">
-        <v>41549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="31">
-        <v>20</v>
-      </c>
-      <c r="F9" s="31">
-        <v>35</v>
-      </c>
-      <c r="G9" s="31">
-        <v>28</v>
-      </c>
-      <c r="H9" s="31">
-        <v>20</v>
-      </c>
-      <c r="I9" s="32">
-        <v>41549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="28"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
-        <v>186</v>
+      <c r="B17" s="29" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
-        <v>187</v>
+      <c r="B21" s="29" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3474,208 +3496,209 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="35">
+        <v>30</v>
+      </c>
+      <c r="F2" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="35">
+        <v>35</v>
+      </c>
+      <c r="F3" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2">
+      <c r="B4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="35">
+        <v>30</v>
+      </c>
+      <c r="F4" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="35">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F5" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="35">
+        <v>20</v>
+      </c>
+      <c r="F6" s="35">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="35">
+        <v>20</v>
+      </c>
+      <c r="F7" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="35">
+        <v>20</v>
+      </c>
+      <c r="F8" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="35">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="F9" s="35">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3696,31 +3719,31 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3741,31 +3764,31 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3779,391 +3802,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="39"/>
+    <col min="2" max="2" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C4" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B10" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C10" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B25" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B26" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B28" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C30" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B32" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B33" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36"/>
+      <c r="C36" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -711,6 +711,10 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -718,10 +722,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="4">
@@ -928,27 +928,27 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2474,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2651,6 +2651,12 @@
       <c r="C10" s="31" t="s">
         <v>67</v>
       </c>
+      <c r="D10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
@@ -2662,6 +2668,12 @@
       <c r="C11" s="31" t="s">
         <v>69</v>
       </c>
+      <c r="D11" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
@@ -2673,6 +2685,12 @@
       <c r="C12" s="31" t="s">
         <v>71</v>
       </c>
+      <c r="D12" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -2684,6 +2702,12 @@
       <c r="C13" s="31" t="s">
         <v>140</v>
       </c>
+      <c r="D13" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -2695,6 +2719,12 @@
       <c r="C14" s="31" t="s">
         <v>72</v>
       </c>
+      <c r="D14" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
@@ -2706,19 +2736,31 @@
       <c r="C15" s="31" t="s">
         <v>73</v>
       </c>
+      <c r="D15" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>2</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="32" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>2</v>
       </c>
@@ -2728,8 +2770,14 @@
       <c r="C17" s="31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>109</v>
       </c>
@@ -2737,7 +2785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>110</v>
       </c>
@@ -2745,7 +2793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>111</v>
       </c>
@@ -2753,7 +2801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>112</v>
       </c>
@@ -2761,7 +2809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>113</v>
       </c>
@@ -2769,7 +2817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>114</v>
       </c>
@@ -2777,7 +2825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
@@ -2785,7 +2833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
@@ -2793,7 +2841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
@@ -2801,7 +2849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="31" t="s">
         <v>118</v>
       </c>
@@ -2809,7 +2857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
         <v>119</v>
       </c>
@@ -2817,7 +2865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="31" t="s">
         <v>120</v>
       </c>
@@ -2825,7 +2873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="31" t="s">
         <v>121</v>
       </c>
@@ -2833,7 +2881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="31" t="s">
         <v>122</v>
       </c>
@@ -2841,7 +2889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
         <v>123</v>
       </c>
@@ -3495,209 +3543,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="8.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="42">
         <v>30</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="42">
         <v>35</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="42">
         <v>30</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="42">
         <v>20</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="42">
         <v>20</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="42">
         <v>20</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="42">
         <v>20</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="42">
         <v>25</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="42">
         <v>25</v>
       </c>
     </row>
@@ -3808,387 +3856,387 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="39"/>
-    <col min="2" max="2" width="28.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="39"/>
+    <col min="1" max="1" width="11" style="35"/>
+    <col min="2" max="2" width="28.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="39"/>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="39"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="39"/>
+      <c r="C36" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="188">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,9 +194,6 @@
     <t>Siblings should not marry one another</t>
   </si>
   <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
     <t>No more than one child with the same name and birth date should appear in a family</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Siblings should not marry</t>
   </si>
   <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
     <t>Correct gender for role</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>US18</t>
   </si>
   <si>
-    <t>US19</t>
-  </si>
-  <si>
     <t>US21</t>
   </si>
   <si>
@@ -621,6 +612,15 @@
   </si>
   <si>
     <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
   </si>
 </sst>
 </file>
@@ -702,6 +702,10 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -709,10 +713,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
     </font>
     <font>
       <b/>
@@ -883,7 +883,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -926,29 +926,31 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1069,6 +1071,9 @@
                 <c:pt idx="2">
                   <c:v>41549</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41559</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1086,6 +1091,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,6 +1339,9 @@
                 <c:pt idx="2">
                   <c:v>41549</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41559</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1348,6 +1359,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2314,70 +2328,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2385,70 +2399,70 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2474,435 +2488,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="31"/>
+    <col min="1" max="1" width="6.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="C4" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="42">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="42">
+        <v>1</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <v>1</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
+        <v>2</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>2</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
+        <v>2</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
+        <v>2</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
+        <v>2</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
+        <v>2</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
-        <v>1</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
-        <v>1</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
-        <v>1</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="C16" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <v>2</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="B17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>2</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="C17" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
+        <v>3</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
+        <v>3</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>2</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="C19" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
+        <v>3</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
+      <c r="C20" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>3</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
+      <c r="C21" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>3</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="C22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="C23" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
+        <v>3</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="C24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
+        <v>3</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="31" t="s">
+      <c r="C25" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>4</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="31" t="s">
+      <c r="C26" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>4</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
+      <c r="C27" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
+        <v>4</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
+      <c r="C28" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
+        <v>4</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="C29" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
+        <v>4</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C30" s="42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="31" t="s">
+      <c r="D30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
+        <v>4</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C31" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
+      <c r="D31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="42">
+        <v>4</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="31" t="s">
+      <c r="C32" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
+        <v>4</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="31" t="s">
+      <c r="C33" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2932,37 +3090,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2985,7 +3143,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="9">
         <v>41065</v>
@@ -3001,7 +3159,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="9">
         <v>41078</v>
@@ -3026,7 +3184,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" s="9">
         <v>41092</v>
@@ -3051,7 +3209,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="9">
         <v>41106</v>
@@ -3076,7 +3234,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="9">
         <v>41120</v>
@@ -3108,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3199,6 +3357,28 @@
         <v>63.6</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>41559</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="30">
+        <f>B4-B5</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5" s="7">
+        <f>(D5-D4)/E5*60</f>
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3212,7 +3392,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3260,16 +3440,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" s="27">
         <v>15</v>
@@ -3289,16 +3469,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E3" s="27">
         <v>15</v>
@@ -3318,16 +3498,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E4" s="27">
         <v>15</v>
@@ -3347,16 +3527,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="27">
         <v>10</v>
@@ -3376,16 +3556,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="27">
         <v>10</v>
@@ -3405,16 +3585,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" s="27">
         <v>10</v>
@@ -3434,16 +3614,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E8" s="27">
         <v>20</v>
@@ -3463,16 +3643,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" s="27">
         <v>20</v>
@@ -3492,16 +3672,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E11" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3519,7 +3699,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -3529,7 +3709,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3541,212 +3721,318 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="42"/>
+    <col min="1" max="1" width="8.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="40">
+        <v>30</v>
+      </c>
+      <c r="F2" s="40">
+        <v>40</v>
+      </c>
+      <c r="G2" s="40">
+        <v>25</v>
+      </c>
+      <c r="H2" s="40">
+        <v>60</v>
+      </c>
+      <c r="I2" s="43">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="40">
+        <v>35</v>
+      </c>
+      <c r="F3" s="40">
+        <v>30</v>
+      </c>
+      <c r="G3" s="40">
+        <v>20</v>
+      </c>
+      <c r="H3" s="44">
+        <v>20</v>
+      </c>
+      <c r="I3" s="43">
+        <v>41560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="42">
+      <c r="B4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="40">
         <v>30</v>
       </c>
-      <c r="F2" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="F4" s="40">
+        <v>30</v>
+      </c>
+      <c r="G4" s="40">
+        <v>20</v>
+      </c>
+      <c r="H4" s="44">
+        <v>5</v>
+      </c>
+      <c r="I4" s="43">
+        <v>41561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="42">
-        <v>35</v>
-      </c>
-      <c r="F3" s="42">
+      <c r="B5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="40">
+        <v>20</v>
+      </c>
+      <c r="F5" s="40">
+        <v>25</v>
+      </c>
+      <c r="G5" s="40">
+        <v>20</v>
+      </c>
+      <c r="H5" s="44">
+        <v>5</v>
+      </c>
+      <c r="I5" s="43">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="40">
+        <v>20</v>
+      </c>
+      <c r="F6" s="40">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="42">
+      <c r="G6" s="40">
+        <v>20</v>
+      </c>
+      <c r="H6" s="44">
+        <v>5</v>
+      </c>
+      <c r="I6" s="43">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="40">
+        <v>20</v>
+      </c>
+      <c r="F7" s="40">
         <v>30</v>
       </c>
-      <c r="F4" s="42">
+      <c r="G7" s="40">
+        <v>20</v>
+      </c>
+      <c r="H7" s="44">
+        <v>15</v>
+      </c>
+      <c r="I7" s="43">
+        <v>41564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="40">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="G8" s="40">
         <v>20</v>
       </c>
-      <c r="F5" s="42">
+      <c r="H8" s="44">
+        <v>20</v>
+      </c>
+      <c r="I8" s="43">
+        <v>41565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="40">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="42">
+      <c r="F9" s="40">
+        <v>25</v>
+      </c>
+      <c r="G9" s="40">
         <v>20</v>
       </c>
-      <c r="F6" s="42">
+      <c r="H9" s="44">
+        <v>20</v>
+      </c>
+      <c r="I9" s="43">
+        <v>41566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="42">
-        <v>20</v>
-      </c>
-      <c r="F7" s="42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="42">
-        <v>20</v>
-      </c>
-      <c r="F8" s="42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="42">
-        <v>25</v>
-      </c>
-      <c r="F9" s="42">
-        <v>25</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3758,13 +4044,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -3793,6 +4089,166 @@
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="40">
+        <v>20</v>
+      </c>
+      <c r="F2" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="40">
+        <v>20</v>
+      </c>
+      <c r="F3" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="40">
+        <v>25</v>
+      </c>
+      <c r="F4" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="40">
+        <v>30</v>
+      </c>
+      <c r="F5" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="40">
+        <v>35</v>
+      </c>
+      <c r="F6" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="40">
+        <v>30</v>
+      </c>
+      <c r="F7" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="40">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="40">
+        <v>20</v>
+      </c>
+      <c r="F9" s="40">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3803,13 +4259,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -3838,6 +4304,190 @@
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42">
+        <v>4</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="40">
+        <v>20</v>
+      </c>
+      <c r="G2" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
+        <v>4</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="40">
+        <v>30</v>
+      </c>
+      <c r="G3" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
+        <v>4</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="40">
+        <v>20</v>
+      </c>
+      <c r="G4" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="40">
+        <v>20</v>
+      </c>
+      <c r="G5" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="40">
+        <v>35</v>
+      </c>
+      <c r="G6" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="40">
+        <v>30</v>
+      </c>
+      <c r="G7" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <v>4</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="40">
+        <v>20</v>
+      </c>
+      <c r="G8" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>4</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="40">
+        <v>25</v>
+      </c>
+      <c r="G9" s="40">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3850,393 +4500,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="35"/>
-    <col min="2" max="2" width="28.125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="11" style="33"/>
+    <col min="2" max="2" width="28.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="C4" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="C5" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="B6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="B7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="B8" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="B9" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="C10" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="B11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="B12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="B13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="C14" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="B24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="B25" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="B26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="B27" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="B28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="B29" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="C30" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="C31" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="B32" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="35"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="35"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="35"/>
+      <c r="C36" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HomeworkTextbooksClassNotes\Homework\SSW555\SSW555Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robyn\Documents\Github\SSW555Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="190">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -621,12 +621,18 @@
   </si>
   <si>
     <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>Unexused absences from meetings</t>
+  </si>
+  <si>
+    <t>Not being reachable via groupchat and emails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -883,7 +889,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,6 +957,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2291,11 +2300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2471,12 +2480,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{FAA90F60-BD77-450E-A49F-D6E56F12044A}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{979ABF4A-272C-482D-9837-8C7ABEEB0880}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
@@ -2485,11 +2494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3071,11 +3080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3265,10 +3274,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3388,7 +3397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3720,11 +3729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4035,6 +4044,16 @@
         <v>181</v>
       </c>
     </row>
+    <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4043,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -4062,7 +4081,7 @@
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4258,10 +4277,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4277,7 +4296,7 @@
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="191">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Not being reachable via groupchat and emails</t>
+  </si>
+  <si>
+    <t>separating out the logic for easy testing</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1081,14 +1084,14 @@
                   <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41559</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1335,7 +1338,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1349,14 +1352,14 @@
                   <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41559</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1944,13 +1947,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -2303,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2497,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3275,116 +3278,126 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11" style="30"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
         <v>40442</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>41540</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="C3">
-        <f>B2-B3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" s="7">
-        <f>(D3-D2)/E3*60</f>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>41549</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>24</v>
       </c>
-      <c r="C4">
-        <f>B3-B4</f>
+      <c r="D4">
+        <f>C3-C4</f>
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>135</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4" s="7">
-        <f>(D4-D3)/E4*60</f>
+      <c r="G4" s="7">
+        <f>(E4-E3)/F4*60</f>
         <v>63.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>41559</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41563</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C5" s="30">
-        <f>B4-B5</f>
+      <c r="D5" s="30">
+        <f>C4-C5</f>
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>120</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>150</v>
       </c>
-      <c r="F5" s="7">
-        <f>(D5-D4)/E5*60</f>
+      <c r="G5" s="7">
+        <f>(E5-E4)/F5*60</f>
         <v>-6</v>
       </c>
     </row>
@@ -3730,10 +3743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4028,8 +4041,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
+    <row r="17" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
@@ -4039,18 +4054,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
-        <v>181</v>
+    <row r="20" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4519,7 +4529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HomeworkTextbooksClassNotes\Homework\SSW555\SSW555Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robyn\Documents\Github\SSW555Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="191">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -621,12 +621,21 @@
   </si>
   <si>
     <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>Unexused absences from meetings</t>
+  </si>
+  <si>
+    <t>Not being reachable via groupchat and emails</t>
+  </si>
+  <si>
+    <t>separating out the logic for easy testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -883,7 +892,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,6 +960,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1058,7 +1070,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1072,14 +1084,14 @@
                   <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41559</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1326,7 +1338,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1340,14 +1352,14 @@
                   <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41559</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1935,13 +1947,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -2291,11 +2303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2471,12 +2483,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{FAA90F60-BD77-450E-A49F-D6E56F12044A}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{979ABF4A-272C-482D-9837-8C7ABEEB0880}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
@@ -2485,11 +2497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3071,11 +3083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3265,117 +3277,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11" style="30"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
         <v>40442</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>41540</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="C3">
-        <f>B2-B3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" s="7">
-        <f>(D3-D2)/E3*60</f>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>41549</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>24</v>
       </c>
-      <c r="C4">
-        <f>B3-B4</f>
+      <c r="D4">
+        <f>C3-C4</f>
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>135</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4" s="7">
-        <f>(D4-D3)/E4*60</f>
+      <c r="G4" s="7">
+        <f>(E4-E3)/F4*60</f>
         <v>63.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>41559</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41563</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C5" s="30">
-        <f>B4-B5</f>
+      <c r="D5" s="30">
+        <f>C4-C5</f>
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>120</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>150</v>
       </c>
-      <c r="F5" s="7">
-        <f>(D5-D4)/E5*60</f>
+      <c r="G5" s="7">
+        <f>(E5-E4)/F5*60</f>
         <v>-6</v>
       </c>
     </row>
@@ -3388,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3720,8 +3742,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -4019,8 +4041,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
+    <row r="17" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
@@ -4030,9 +4054,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
-        <v>181</v>
+    <row r="20" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="45" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4043,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -4062,7 +4091,7 @@
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4258,10 +4287,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4277,7 +4306,7 @@
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4497,10 +4526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robyn\Documents\Github\SSW555Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HomeworkTextbooksClassNotes\Homework\SSW555\SSW555Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2303,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2483,12 +2483,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
@@ -2497,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
@@ -3083,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
@@ -3277,10 +3277,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3410,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3742,11 +3742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4072,11 +4072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4139,6 +4139,15 @@
       <c r="F2" s="40">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9">
+        <v>41571</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
@@ -4259,6 +4268,15 @@
       <c r="F8" s="40">
         <v>25</v>
       </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9">
+        <v>41572</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
@@ -4278,6 +4296,15 @@
       </c>
       <c r="F9" s="40">
         <v>30</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41572</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
@@ -4526,11 +4553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>separating out the logic for easy testing</t>
+  </si>
+  <si>
+    <t>commiting code to GitHub</t>
+  </si>
+  <si>
+    <t>finish US early</t>
+  </si>
+  <si>
+    <t>wait until last minute to finish US</t>
   </si>
 </sst>
 </file>
@@ -3745,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4073,10 +4082,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4168,6 +4177,15 @@
       <c r="F3" s="40">
         <v>30</v>
       </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9">
+        <v>41573</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
@@ -4188,6 +4206,15 @@
       <c r="F4" s="40">
         <v>25</v>
       </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="9">
+        <v>41573</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
@@ -4208,6 +4235,15 @@
       <c r="F5" s="40">
         <v>40</v>
       </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41573</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
@@ -4306,6 +4342,45 @@
       <c r="I9" s="9">
         <v>41572</v>
       </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
     <t>finish US early</t>
   </si>
   <si>
-    <t>wait until last minute to finish US</t>
+    <t>N/A (everything is fine in this Sprint)</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>41538</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41540</c:v>
@@ -1094,6 +1094,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,6 +1121,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1364,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>41538</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41540</c:v>
@@ -1362,6 +1374,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,6 +1401,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,6 +1447,10 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="2"/>
+        <c:majorTimeUnit val="months"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="97754992"/>
@@ -1956,16 +1984,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>948267</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487892</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2509,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2826,7 +2854,7 @@
         <v>168</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2843,7 +2871,7 @@
         <v>168</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2860,7 +2888,7 @@
         <v>141</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2877,7 +2905,7 @@
         <v>141</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2894,7 +2922,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2911,7 +2939,7 @@
         <v>151</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2928,7 +2956,7 @@
         <v>146</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,7 +2973,7 @@
         <v>146</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3095,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3287,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3329,7 +3357,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
-        <v>40442</v>
+        <v>41538</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -3375,14 +3403,14 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4" s="7">
         <f>(E4-E3)/F4*60</f>
-        <v>63.6</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3400,15 +3428,147 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F5">
         <v>150</v>
       </c>
       <c r="G5" s="7">
         <f>(E5-E4)/F5*60</f>
-        <v>-6</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41571</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="30">
+        <f t="shared" ref="D6:D9" si="0">C5-C6</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>335</v>
+      </c>
+      <c r="F6">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7">
+        <f>(E6-E5)/F6*60</f>
+        <v>5.2941176470588243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>41572</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>360</v>
+      </c>
+      <c r="F7">
+        <v>190</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(E7-E6)/F7*60</f>
+        <v>7.8947368421052628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>41573</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>420</v>
+      </c>
+      <c r="F8">
+        <v>320</v>
+      </c>
+      <c r="G8" s="7">
+        <f>(E8-E7)/F8*60</f>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41574</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>475</v>
+      </c>
+      <c r="F9">
+        <v>360</v>
+      </c>
+      <c r="G9" s="7">
+        <f>(E9-E8)/F9*60</f>
+        <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="30"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="30"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="30"/>
+      <c r="C31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3423,7 +3583,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4084,14 +4244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
@@ -4264,6 +4424,15 @@
       <c r="F6" s="40">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>41574</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
@@ -4283,6 +4452,15 @@
       </c>
       <c r="F7" s="40">
         <v>30</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="9">
+        <v>41574</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2537,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3092,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>146</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3384,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="7">
-        <f>(E3-E2)/F3*60</f>
+        <f t="shared" ref="G3:G10" si="0">(E3-E2)/F3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="7">
-        <f>(E4-E3)/F4*60</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="7">
-        <f>(E5-E4)/F5*60</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="30">
-        <f t="shared" ref="D6:D9" si="0">C5-C6</f>
+        <f t="shared" ref="D6:D10" si="1">C5-C6</f>
         <v>1</v>
       </c>
       <c r="E6">
@@ -3459,7 +3459,7 @@
         <v>170</v>
       </c>
       <c r="G6" s="7">
-        <f>(E6-E5)/F6*60</f>
+        <f t="shared" si="0"/>
         <v>5.2941176470588243</v>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E7">
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="G7" s="7">
-        <f>(E7-E6)/F7*60</f>
+        <f t="shared" si="0"/>
         <v>7.8947368421052628</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E8">
@@ -3509,7 +3509,7 @@
         <v>320</v>
       </c>
       <c r="G8" s="7">
-        <f>(E8-E7)/F8*60</f>
+        <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E9">
@@ -3534,8 +3534,33 @@
         <v>360</v>
       </c>
       <c r="G9" s="7">
-        <f>(E9-E8)/F9*60</f>
+        <f t="shared" si="0"/>
         <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41587</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>505</v>
+      </c>
+      <c r="F10">
+        <v>420</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -4244,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4568,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4767,13 +4792,19 @@
         <v>146</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F8" s="40">
         <v>20</v>
       </c>
       <c r="G8" s="40">
         <v>25</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>41587</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4790,7 +4821,7 @@
         <v>146</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F9" s="40">
         <v>25</v>
@@ -4798,6 +4829,42 @@
       <c r="G9" s="40">
         <v>25</v>
       </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="45"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4809,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="197">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>N/A (everything is fine in this Sprint)</t>
+  </si>
+  <si>
+    <t>wait until last day to finish US</t>
+  </si>
+  <si>
+    <t>wrong indentation</t>
+  </si>
+  <si>
+    <t>follow pep8 coding standard</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2547,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2990,7 +2999,7 @@
         <v>168</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,7 +3016,7 @@
         <v>168</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3317,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G10" si="0">(E3-E2)/F3*60</f>
+        <f t="shared" ref="G3:G12" si="0">(E3-E2)/F3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
@@ -3449,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="30">
-        <f t="shared" ref="D6:D10" si="1">C5-C6</f>
+        <f t="shared" ref="D6:D12" si="1">C5-C6</f>
         <v>1</v>
       </c>
       <c r="E6">
@@ -3561,6 +3570,53 @@
       <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>41588</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>535</v>
+      </c>
+      <c r="F11">
+        <v>480</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>41589</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>575</v>
+      </c>
+      <c r="F12">
+        <v>525</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5714285714285721</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -4270,7 +4326,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4593,17 +4649,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -4654,13 +4710,19 @@
         <v>168</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F2" s="40">
         <v>20</v>
       </c>
       <c r="G2" s="40">
         <v>30</v>
+      </c>
+      <c r="H2" s="30">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9">
+        <v>41588</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4677,13 +4739,19 @@
         <v>168</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F3" s="40">
         <v>30</v>
       </c>
       <c r="G3" s="40">
         <v>40</v>
+      </c>
+      <c r="H3" s="30">
+        <v>30</v>
+      </c>
+      <c r="I3" s="9">
+        <v>41588</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4700,13 +4768,19 @@
         <v>141</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F4" s="40">
         <v>20</v>
       </c>
       <c r="G4" s="40">
         <v>30</v>
+      </c>
+      <c r="H4" s="30">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9">
+        <v>41589</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4723,13 +4797,19 @@
         <v>141</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F5" s="40">
         <v>20</v>
       </c>
       <c r="G5" s="40">
         <v>30</v>
+      </c>
+      <c r="H5" s="30">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41589</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4850,7 +4930,9 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="45"/>
+      <c r="C17" s="45" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="45"/>
@@ -4864,7 +4946,14 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="45"/>
+      <c r="C21" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4876,8 +4965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -641,13 +641,13 @@
     <t>N/A (everything is fine in this Sprint)</t>
   </si>
   <si>
-    <t>wait until last day to finish US</t>
-  </si>
-  <si>
     <t>wrong indentation</t>
   </si>
   <si>
     <t>follow pep8 coding standard</t>
+  </si>
+  <si>
+    <t>finish US early to get feedback from others</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2546,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3033,7 +3033,7 @@
         <v>141</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>141</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3067,7 +3067,7 @@
         <v>151</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,7 +3084,7 @@
         <v>151</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3326,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G12" si="0">(E3-E2)/F3*60</f>
+        <f t="shared" ref="G3:G13" si="0">(E3-E2)/F3*60</f>
         <v>69.599999999999994</v>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="30">
-        <f t="shared" ref="D6:D12" si="1">C5-C6</f>
+        <f t="shared" ref="D6:D13" si="1">C5-C6</f>
         <v>1</v>
       </c>
       <c r="E6">
@@ -3617,6 +3617,28 @@
       <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>4.5714285714285721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>41590</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>605</v>
+      </c>
+      <c r="F13">
+        <v>565</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1858407079646018</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -4649,10 +4671,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4826,13 +4848,19 @@
         <v>151</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F6" s="40">
         <v>35</v>
       </c>
       <c r="G6" s="40">
         <v>30</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9">
+        <v>41590</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4849,13 +4877,19 @@
         <v>151</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F7" s="40">
         <v>30</v>
       </c>
       <c r="G7" s="40">
         <v>30</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9">
+        <v>41590</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4931,11 +4965,13 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="45" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="29"/>
@@ -4946,13 +4982,8 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="45" t="s">
+      <c r="C21" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +4997,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
